--- a/data/trans_orig/ip32_a_an-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ip32_a_an-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D9D136-3CD9-40D7-B51D-AEC786EB1ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0F4F928-C464-492E-9AB0-D5B28AB8D1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0509D0C5-020D-491E-AE77-D03D85C5550F}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3A22FCDE-13C6-4E64-839C-05446E61C0BD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -84,9 +84,21 @@
     <t>44,41%</t>
   </si>
   <si>
+    <t>46,15%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
     <t>22,85%</t>
   </si>
   <si>
@@ -96,16 +108,118 @@
     <t>46,13%</t>
   </si>
   <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
   </si>
   <si>
     <t>10/15</t>
@@ -114,6 +228,198 @@
     <t>9,49%</t>
   </si>
   <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
     <t>16,36%</t>
   </si>
   <si>
@@ -132,315 +438,216 @@
     <t>21,66%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
     <t>6,57%</t>
   </si>
   <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
     <t>11,39%</t>
   </si>
   <si>
@@ -456,216 +663,24 @@
     <t>14,49%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
     <t>menores según el año que llegó a andalucía en 2015 (Tasa respuesta: 1,65%)</t>
   </si>
   <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
     <t>36,25%</t>
   </si>
   <si>
@@ -675,19 +690,76 @@
     <t>24,26%</t>
   </si>
   <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -699,6 +771,159 @@
     <t>7,93%</t>
   </si>
   <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
     <t>11,2%</t>
   </si>
   <si>
@@ -711,237 +936,225 @@
     <t>23,0%</t>
   </si>
   <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
     <t>5,3%</t>
   </si>
   <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
     <t>7,14%</t>
   </si>
   <si>
@@ -952,219 +1165,6 @@
   </si>
   <si>
     <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CB91B0-3C49-4293-881A-D58D4633D10C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C879C66A-E048-4F75-AECC-41C4CC4E8EDE}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1671,7 +1671,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -1722,7 +1722,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1824,7 +1824,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1875,7 +1875,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1926,7 +1926,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1977,52 +1977,52 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
-        <v>1051</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>567</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>1051</v>
+        <v>567</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,13 +2052,13 @@
         <v>661</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2067,55 +2067,55 @@
         <v>661</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>1051</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>567</v>
+        <v>1051</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>22</v>
@@ -2124,13 +2124,13 @@
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2232,7 +2232,7 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -2283,7 +2283,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -2334,7 +2334,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -2385,7 +2385,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>1051</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2460,13 +2460,13 @@
         <v>1228</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2475,13 +2475,13 @@
         <v>2279</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,7 +2489,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="5">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -2507,340 +2507,340 @@
         <v>24</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>2841</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2841</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" s="7">
-        <v>1924</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H21" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>4245</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M21" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N21" s="7">
-        <v>6169</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="C22" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>4653</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>910</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M22" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>5563</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>2062</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>736</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>2798</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="C24" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>3182</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>718</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="M24" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>3120</v>
+        <v>1128</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="H25" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>1936</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="M25" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>5056</v>
+        <v>1128</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>869</v>
+        <v>1255</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>2003</v>
+        <v>2155</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>2872</v>
+        <v>3410</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,193 +2864,193 @@
         <v>24</v>
       </c>
       <c r="H27" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27" s="7">
-        <v>818</v>
+        <v>2391</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N27" s="7">
-        <v>818</v>
+        <v>2391</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" s="7">
-        <v>1809</v>
+        <v>3669</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="M28" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N28" s="7">
-        <v>3034</v>
+        <v>3669</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>923</v>
+        <v>1067</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>1938</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="M29" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>2861</v>
+        <v>1066</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="H30" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <v>1804</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="M30" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N30" s="7">
-        <v>0</v>
+        <v>2827</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -3095,13 +3095,13 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -3182,7 +3182,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -3197,13 +3197,13 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,57 +3257,57 @@
         <v>3</v>
       </c>
       <c r="C35" s="7">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D35" s="7">
-        <v>18542</v>
+        <v>8142</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H35" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I35" s="7">
-        <v>17372</v>
+        <v>6350</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M35" s="7">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N35" s="7">
-        <v>35914</v>
+        <v>14491</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B36" s="5">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3337,7 +3337,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3352,13 +3352,13 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3388,7 +3388,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3403,13 +3403,13 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -3454,13 +3454,13 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="C39" s="7">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -3505,160 +3505,160 @@
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="C40" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>1023</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="H40" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>1804</v>
+        <v>0</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="M40" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N40" s="7">
-        <v>2827</v>
+        <v>0</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>1067</v>
+        <v>923</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="H41" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" s="7">
-        <v>0</v>
+        <v>1938</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="M41" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N41" s="7">
-        <v>1066</v>
+        <v>2861</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C42" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" s="7">
-        <v>3669</v>
+        <v>1809</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="H42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="7">
-        <v>0</v>
+        <v>1225</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="M42" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N42" s="7">
-        <v>3669</v>
+        <v>3034</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,349 +3679,349 @@
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="H43" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43" s="7">
-        <v>2391</v>
+        <v>818</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="M43" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N43" s="7">
-        <v>2391</v>
+        <v>818</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C44" s="7">
         <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>1255</v>
+        <v>869</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
       </c>
       <c r="I44" s="7">
-        <v>2155</v>
+        <v>2003</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="M44" s="7">
         <v>3</v>
       </c>
       <c r="N44" s="7">
-        <v>3410</v>
+        <v>2872</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C45" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45" s="7">
-        <v>1128</v>
+        <v>3120</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="H45" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" s="7">
-        <v>0</v>
+        <v>1936</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M45" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N45" s="7">
-        <v>1128</v>
+        <v>5056</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="C46" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D46" s="7">
-        <v>0</v>
+        <v>3182</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="7">
-        <v>0</v>
+        <v>718</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M46" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N46" s="7">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="C47" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D47" s="7">
-        <v>0</v>
+        <v>2062</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H47" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="7">
-        <v>0</v>
+        <v>736</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="M47" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N47" s="7">
-        <v>0</v>
+        <v>2798</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="C48" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D48" s="7">
-        <v>0</v>
+        <v>4653</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="H48" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="7">
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="M48" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N48" s="7">
-        <v>0</v>
+        <v>5563</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="C49" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D49" s="7">
-        <v>0</v>
+        <v>1924</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="H49" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I49" s="7">
-        <v>0</v>
+        <v>4245</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="M49" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N49" s="7">
-        <v>0</v>
+        <v>6169</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="C50" s="7">
         <v>0</v>
@@ -4036,37 +4036,37 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="H50" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I50" s="7">
-        <v>0</v>
+        <v>2841</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="M50" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N50" s="7">
-        <v>0</v>
+        <v>2841</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,49 +4075,49 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D51" s="7">
-        <v>8142</v>
+        <v>18542</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H51" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I51" s="7">
-        <v>6350</v>
+        <v>17372</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M51" s="7">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="N51" s="7">
-        <v>14491</v>
+        <v>35914</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,7 +4125,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="5">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="C52" s="7">
         <v>0</v>
@@ -4143,340 +4143,340 @@
         <v>133</v>
       </c>
       <c r="H52" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" s="7">
-        <v>2841</v>
+        <v>0</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M52" s="7">
-        <v>3</v>
-      </c>
-      <c r="N52" s="7">
-        <v>2841</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="C53" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D53" s="7">
-        <v>1924</v>
+        <v>0</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H53" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I53" s="7">
-        <v>4245</v>
+        <v>0</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="M53" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N53" s="7">
-        <v>6169</v>
+        <v>0</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="C54" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D54" s="7">
-        <v>4653</v>
+        <v>0</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="H54" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="7">
-        <v>910</v>
+        <v>0</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="M54" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N54" s="7">
-        <v>5563</v>
+        <v>0</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="C55" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D55" s="7">
-        <v>2062</v>
+        <v>0</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="H55" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="7">
-        <v>736</v>
+        <v>0</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="M55" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N55" s="7">
-        <v>2798</v>
+        <v>0</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="C56" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D56" s="7">
-        <v>4205</v>
+        <v>0</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="H56" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" s="7">
-        <v>2522</v>
+        <v>0</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="M56" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N56" s="7">
-        <v>6728</v>
+        <v>0</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C57" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" s="7">
-        <v>4187</v>
+        <v>2051</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="H57" s="7">
         <v>2</v>
       </c>
       <c r="I57" s="7">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="M57" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N57" s="7">
-        <v>6123</v>
+        <v>3989</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C58" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D58" s="7">
-        <v>5590</v>
+        <v>3064</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="H58" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I58" s="7">
-        <v>2003</v>
+        <v>3946</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="M58" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N58" s="7">
-        <v>7592</v>
+        <v>7010</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4506,13 @@
         <v>3871</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="M59" s="7">
         <v>5</v>
@@ -4521,325 +4521,325 @@
         <v>3871</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C60" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D60" s="7">
-        <v>3064</v>
+        <v>5590</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="H60" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I60" s="7">
-        <v>3946</v>
+        <v>2003</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="M60" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N60" s="7">
-        <v>7010</v>
+        <v>7592</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C61" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" s="7">
-        <v>2051</v>
+        <v>4187</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="H61" s="7">
         <v>2</v>
       </c>
       <c r="I61" s="7">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="M61" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N61" s="7">
-        <v>3989</v>
+        <v>6123</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="C62" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D62" s="7">
-        <v>0</v>
+        <v>4205</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="H62" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I62" s="7">
-        <v>0</v>
+        <v>2522</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="M62" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N62" s="7">
-        <v>0</v>
+        <v>6728</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="C63" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D63" s="7">
-        <v>0</v>
+        <v>2062</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="H63" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="7">
-        <v>0</v>
+        <v>736</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="M63" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N63" s="7">
-        <v>0</v>
+        <v>2798</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="C64" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D64" s="7">
-        <v>0</v>
+        <v>4653</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="H64" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" s="7">
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="M64" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N64" s="7">
-        <v>0</v>
+        <v>5563</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="C65" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D65" s="7">
-        <v>0</v>
+        <v>1924</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="H65" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I65" s="7">
-        <v>0</v>
+        <v>4245</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="M65" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N65" s="7">
-        <v>0</v>
+        <v>6169</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="5">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="C66" s="7">
         <v>0</v>
@@ -4857,31 +4857,31 @@
         <v>133</v>
       </c>
       <c r="H66" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I66" s="7">
-        <v>0</v>
+        <v>2841</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="M66" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N66" s="7">
-        <v>0</v>
+        <v>2841</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q66" s="7" t="s">
         <v>207</v>
@@ -4899,13 +4899,13 @@
         <v>27735</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H67" s="7">
         <v>28</v>
@@ -4914,13 +4914,13 @@
         <v>24949</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M67" s="7">
         <v>56</v>
@@ -4929,13 +4929,13 @@
         <v>52684</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -4954,7 +4954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB719B81-2C67-4187-A382-379EFF2C10C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78556D8D-FB45-4030-88E5-A0F957489139}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5069,7 +5069,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -5087,91 +5087,91 @@
         <v>12</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>937</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1473</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -5216,13 +5216,13 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -5267,13 +5267,13 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -5291,40 +5291,40 @@
         <v>12</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>715</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>215</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>715</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -5369,13 +5369,13 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +5471,13 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -5522,13 +5522,13 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -5573,13 +5573,13 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -5597,40 +5597,40 @@
         <v>12</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>715</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>715</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>15</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -5675,13 +5675,13 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -5726,64 +5726,64 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>937</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>1473</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>10</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>15</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -5801,34 +5801,34 @@
         <v>12</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1</v>
-      </c>
-      <c r="N18" s="7">
-        <v>759</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5843,13 @@
         <v>937</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -5858,13 +5858,13 @@
         <v>2010</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5873,13 +5873,13 @@
         <v>2947</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,7 +5887,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="5">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -5917,7 +5917,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5932,28 +5932,28 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="7">
-        <v>983</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5968,277 +5968,277 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="7">
-        <v>983</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>222</v>
+        <v>10</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>223</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>1862</v>
+        <v>1015</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" s="7">
         <v>1</v>
       </c>
-      <c r="I22" s="7">
-        <v>778</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M22" s="7">
-        <v>3</v>
-      </c>
       <c r="N22" s="7">
-        <v>2640</v>
+        <v>1015</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>229</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>892</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>1492</v>
+        <v>915</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>1492</v>
+        <v>1807</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>713</v>
+        <v>832</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H24" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>2577</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>237</v>
+        <v>10</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>238</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="M24" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N24" s="7">
-        <v>3290</v>
+        <v>832</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>241</v>
+        <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>2253</v>
+        <v>672</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="7">
         <v>1</v>
       </c>
-      <c r="I25" s="7">
-        <v>931</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="M25" s="7">
-        <v>3</v>
-      </c>
       <c r="N25" s="7">
-        <v>3185</v>
+        <v>672</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>248</v>
+        <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>1165</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>10</v>
+        <v>237</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>1809</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>11</v>
+        <v>239</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,55 +6247,55 @@
         <v>2008</v>
       </c>
       <c r="C27" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27" s="7">
-        <v>2024</v>
+        <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="H27" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>1863</v>
+        <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>252</v>
+        <v>10</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>253</v>
+        <v>14</v>
       </c>
       <c r="M27" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N27" s="7">
-        <v>3887</v>
+        <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>254</v>
+        <v>10</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -6325,7 +6325,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6340,13 +6340,13 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -6364,91 +6364,91 @@
         <v>217</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>1167</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>257</v>
+        <v>10</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>256</v>
+        <v>14</v>
       </c>
       <c r="M29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="7">
-        <v>1167</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>258</v>
+        <v>10</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>259</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="C30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>943</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>260</v>
+        <v>10</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="H30" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>1813</v>
+        <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>262</v>
+        <v>10</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>263</v>
+        <v>14</v>
       </c>
       <c r="M30" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N30" s="7">
-        <v>2756</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>264</v>
+        <v>10</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>266</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -6466,40 +6466,40 @@
         <v>217</v>
       </c>
       <c r="H31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>267</v>
+        <v>10</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>268</v>
+        <v>14</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>269</v>
+        <v>10</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>270</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6544,13 +6544,13 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -6568,40 +6568,40 @@
         <v>217</v>
       </c>
       <c r="H33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="7">
-        <v>957</v>
+        <v>0</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>271</v>
+        <v>10</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>272</v>
+        <v>14</v>
       </c>
       <c r="M33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="7">
-        <v>957</v>
+        <v>0</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>273</v>
+        <v>10</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>274</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6646,7 +6646,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,57 +6655,57 @@
         <v>3</v>
       </c>
       <c r="C35" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D35" s="7">
-        <v>8779</v>
+        <v>4055</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H35" s="7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I35" s="7">
-        <v>12570</v>
+        <v>2080</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M35" s="7">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="N35" s="7">
-        <v>21349</v>
+        <v>6135</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B36" s="5">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6735,7 +6735,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6750,13 +6750,13 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -6771,43 +6771,43 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="H37" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="7">
-        <v>0</v>
+        <v>957</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>10</v>
+        <v>244</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="M37" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" s="7">
-        <v>0</v>
+        <v>957</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>96</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6837,7 +6837,7 @@
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -6852,13 +6852,13 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="C39" s="7">
         <v>0</v>
@@ -6873,94 +6873,94 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="H39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="7">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="M39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="7">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>96</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="C40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>0</v>
+        <v>943</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="H40" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" s="7">
-        <v>0</v>
+        <v>1813</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>10</v>
+        <v>254</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="M40" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N40" s="7">
-        <v>0</v>
+        <v>2756</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>96</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -6975,43 +6975,43 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="H41" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="7">
-        <v>0</v>
+        <v>1167</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>14</v>
+        <v>260</v>
       </c>
       <c r="M41" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" s="7">
-        <v>0</v>
+        <v>1167</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>10</v>
+        <v>261</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>96</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -7026,7 +7026,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -7041,7 +7041,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -7056,7 +7056,7 @@
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7065,325 +7065,325 @@
         <v>2008</v>
       </c>
       <c r="C43" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43" s="7">
-        <v>0</v>
+        <v>2024</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>10</v>
+        <v>263</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="H43" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" s="7">
-        <v>0</v>
+        <v>1863</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>10</v>
+        <v>265</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="M43" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N43" s="7">
-        <v>0</v>
+        <v>3887</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>10</v>
+        <v>267</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>11</v>
+        <v>268</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>96</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C44" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>276</v>
+        <v>10</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="H44" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>1165</v>
+        <v>0</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>278</v>
+        <v>10</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>15</v>
+        <v>242</v>
       </c>
       <c r="M44" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>1809</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>279</v>
+        <v>10</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C45" s="7">
+        <v>2</v>
+      </c>
+      <c r="D45" s="7">
+        <v>2253</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H45" s="7">
         <v>1</v>
       </c>
-      <c r="D45" s="7">
-        <v>672</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
       <c r="I45" s="7">
-        <v>0</v>
+        <v>931</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>10</v>
+        <v>271</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>14</v>
+        <v>272</v>
       </c>
       <c r="M45" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N45" s="7">
-        <v>672</v>
+        <v>3185</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>10</v>
+        <v>274</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="C46" s="7">
         <v>1</v>
       </c>
       <c r="D46" s="7">
-        <v>832</v>
+        <v>713</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="H46" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46" s="7">
-        <v>0</v>
+        <v>2577</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>10</v>
+        <v>278</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>14</v>
+        <v>280</v>
       </c>
       <c r="M46" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N46" s="7">
-        <v>832</v>
+        <v>3290</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>10</v>
+        <v>282</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="C47" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="7">
-        <v>892</v>
+        <v>0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>290</v>
+        <v>10</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>291</v>
+        <v>241</v>
       </c>
       <c r="H47" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" s="7">
-        <v>915</v>
+        <v>1492</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>15</v>
+        <v>285</v>
       </c>
       <c r="M47" s="7">
         <v>2</v>
       </c>
       <c r="N47" s="7">
-        <v>1807</v>
+        <v>1492</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="C48" s="7">
+        <v>2</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1862</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H48" s="7">
         <v>1</v>
       </c>
-      <c r="D48" s="7">
-        <v>1015</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
       <c r="I48" s="7">
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>10</v>
+        <v>290</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="M48" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N48" s="7">
-        <v>1015</v>
+        <v>2640</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>10</v>
+        <v>293</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="C49" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="7">
-        <v>0</v>
+        <v>983</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>10</v>
+        <v>295</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -7398,28 +7398,28 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="M49" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" s="7">
-        <v>0</v>
+        <v>983</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>10</v>
+        <v>297</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="C50" s="7">
         <v>0</v>
@@ -7434,7 +7434,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -7464,7 +7464,7 @@
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7473,49 +7473,49 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D51" s="7">
-        <v>4055</v>
+        <v>8779</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H51" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I51" s="7">
-        <v>2080</v>
+        <v>12570</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M51" s="7">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="N51" s="7">
-        <v>6135</v>
+        <v>21349</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7523,7 +7523,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="5">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="C52" s="7">
         <v>0</v>
@@ -7538,343 +7538,343 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="H52" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="7">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>10</v>
+        <v>299</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M52" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" s="7">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
       </c>
       <c r="D53" s="7">
-        <v>983</v>
+        <v>937</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H53" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" s="7">
-        <v>0</v>
+        <v>1492</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="M53" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N53" s="7">
-        <v>983</v>
+        <v>2429</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>10</v>
+        <v>308</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="C54" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" s="7">
-        <v>1862</v>
+        <v>1015</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="M54" s="7">
         <v>1</v>
       </c>
-      <c r="I54" s="7">
-        <v>778</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="M54" s="7">
-        <v>3</v>
-      </c>
       <c r="N54" s="7">
-        <v>2640</v>
+        <v>1015</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="C55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="7">
-        <v>0</v>
+        <v>892</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>10</v>
+        <v>315</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>98</v>
+        <v>316</v>
       </c>
       <c r="H55" s="7">
         <v>2</v>
       </c>
       <c r="I55" s="7">
-        <v>1492</v>
+        <v>1908</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="M55" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N55" s="7">
-        <v>1492</v>
+        <v>2799</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>10</v>
+        <v>320</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="C56" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" s="7">
-        <v>713</v>
+        <v>1775</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H56" s="7">
         <v>3</v>
       </c>
       <c r="I56" s="7">
-        <v>2577</v>
+        <v>2528</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="M56" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N56" s="7">
-        <v>3290</v>
+        <v>4303</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C57" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" s="7">
-        <v>2253</v>
+        <v>672</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>25</v>
+        <v>330</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="H57" s="7">
         <v>1</v>
       </c>
       <c r="I57" s="7">
-        <v>931</v>
+        <v>1167</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="M57" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N57" s="7">
-        <v>3185</v>
+        <v>1840</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C58" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="7">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>10</v>
+        <v>336</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>98</v>
+        <v>337</v>
       </c>
       <c r="H58" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" s="7">
-        <v>0</v>
+        <v>1165</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>10</v>
+        <v>286</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="M58" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N58" s="7">
-        <v>0</v>
+        <v>1809</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>11</v>
+        <v>339</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -7889,13 +7889,13 @@
         <v>2024</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="H59" s="7">
         <v>2</v>
@@ -7904,13 +7904,13 @@
         <v>1863</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="M59" s="7">
         <v>4</v>
@@ -7919,325 +7919,325 @@
         <v>3887</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C60" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" s="7">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>335</v>
+        <v>10</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>336</v>
+        <v>26</v>
       </c>
       <c r="H60" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" s="7">
-        <v>1165</v>
+        <v>0</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>233</v>
+        <v>10</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="M60" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N60" s="7">
-        <v>1809</v>
+        <v>0</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>338</v>
+        <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C61" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" s="7">
-        <v>672</v>
+        <v>2253</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>340</v>
+        <v>127</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
       </c>
       <c r="I61" s="7">
-        <v>1167</v>
+        <v>931</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="M61" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N61" s="7">
-        <v>1840</v>
+        <v>3185</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>10</v>
+        <v>352</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="C62" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" s="7">
-        <v>1775</v>
+        <v>713</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="H62" s="7">
         <v>3</v>
       </c>
       <c r="I62" s="7">
-        <v>2528</v>
+        <v>2577</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="M62" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N62" s="7">
-        <v>4303</v>
+        <v>3290</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="C63" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="7">
-        <v>892</v>
+        <v>0</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>354</v>
+        <v>10</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>355</v>
+        <v>26</v>
       </c>
       <c r="H63" s="7">
         <v>2</v>
       </c>
       <c r="I63" s="7">
-        <v>1908</v>
+        <v>1492</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="M63" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N63" s="7">
-        <v>2799</v>
+        <v>1492</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>358</v>
+        <v>63</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>359</v>
+        <v>10</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="C64" s="7">
+        <v>2</v>
+      </c>
+      <c r="D64" s="7">
+        <v>1862</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H64" s="7">
         <v>1</v>
       </c>
-      <c r="D64" s="7">
-        <v>1015</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H64" s="7">
-        <v>0</v>
-      </c>
       <c r="I64" s="7">
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>10</v>
+        <v>367</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="M64" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N64" s="7">
-        <v>1015</v>
+        <v>2640</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>10</v>
+        <v>370</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
       </c>
       <c r="D65" s="7">
-        <v>937</v>
+        <v>983</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="H65" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" s="7">
-        <v>1492</v>
+        <v>0</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>367</v>
+        <v>10</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>368</v>
+        <v>312</v>
       </c>
       <c r="M65" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N65" s="7">
-        <v>2429</v>
+        <v>983</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>370</v>
+        <v>10</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="5">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="C66" s="7">
         <v>0</v>
@@ -8252,37 +8252,37 @@
         <v>11</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="H66" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>372</v>
+        <v>10</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>373</v>
+        <v>312</v>
       </c>
       <c r="M66" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" s="7">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>374</v>
+        <v>10</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -8297,13 +8297,13 @@
         <v>13771</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H67" s="7">
         <v>20</v>
@@ -8312,13 +8312,13 @@
         <v>16660</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M67" s="7">
         <v>35</v>
@@ -8327,13 +8327,13 @@
         <v>30431</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ip32_a_an-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ip32_a_an-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0095DD1-67BF-4526-8DF3-C899A871BE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1070F246-62C1-43B2-B392-819E9B0797D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2D526E7E-D04C-454D-A9F3-39AE5871B364}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30473F88-2911-4722-94DF-0F463D6C35F3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="390">
   <si>
     <t>Menores según el año que llegó a Andalucía en 2012 (Tasa respuesta: 2,67%)</t>
   </si>
@@ -105,1096 +105,1108 @@
     <t>15,66%</t>
   </si>
   <si>
-    <t>61,94%</t>
+    <t>66,48%</t>
   </si>
   <si>
     <t>9,82%</t>
   </si>
   <si>
-    <t>41,61%</t>
+    <t>45,65%</t>
   </si>
   <si>
     <t>17,43%</t>
   </si>
   <si>
-    <t>65,82%</t>
+    <t>64,5%</t>
   </si>
   <si>
     <t>50,38%</t>
   </si>
   <si>
-    <t>88,43%</t>
+    <t>87,85%</t>
   </si>
   <si>
     <t>29,7%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
   </si>
   <si>
     <t>49,62%</t>
   </si>
   <si>
-    <t>11,57%</t>
+    <t>12,15%</t>
   </si>
   <si>
     <t>18,49%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
   </si>
   <si>
     <t>52,71%</t>
   </si>
   <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
   </si>
   <si>
     <t>33,07%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>59,5%</t>
+    <t>59,86%</t>
   </si>
   <si>
     <t>8,91%</t>
   </si>
   <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
     <t>38,48%</t>
   </si>
   <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
     <t>35,67%</t>
   </si>
   <si>
-    <t>84,63%</t>
+    <t>71,39%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>61,44%</t>
+    <t>53,21%</t>
   </si>
   <si>
     <t>15,63%</t>
   </si>
   <si>
-    <t>67,34%</t>
+    <t>65,31%</t>
   </si>
   <si>
     <t>19,31%</t>
   </si>
   <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
     <t>5,58%</t>
   </si>
   <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el año que llegó a Andalucía en 2016 (Tasa respuesta: 1,65%)</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
   </si>
   <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el año que llegó a Andalucía en 2015 (Tasa respuesta: 1,65%)</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
+    <t>15,55%</t>
   </si>
   <si>
     <t>13,52%</t>
   </si>
   <si>
-    <t>41,49%</t>
+    <t>41,32%</t>
   </si>
   <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>29,1%</t>
+    <t>30,28%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>23,51%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>32,63%</t>
+    <t>41,48%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>15,99%</t>
+    <t>18,35%</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D95527-C765-4F4C-9630-BC6BC7F3035B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C581A0A4-5D19-4947-A2A7-59338721838C}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3847,10 +3859,10 @@
         <v>73</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H46" s="7">
         <v>2</v>
@@ -3859,13 +3871,13 @@
         <v>1804</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M46" s="7">
         <v>5</v>
@@ -3874,13 +3886,13 @@
         <v>4986</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3907,13 @@
         <v>2062</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -3925,13 +3937,13 @@
         <v>2062</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,7 +4152,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B52" s="5">
         <v>2015</v>
@@ -4158,7 +4170,7 @@
         <v>12</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -4188,7 +4200,7 @@
         <v>12</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,7 +4221,7 @@
         <v>12</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -4239,7 +4251,7 @@
         <v>12</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,7 +4272,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -4290,7 +4302,7 @@
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,7 +4323,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -4341,7 +4353,7 @@
         <v>12</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,7 +4374,7 @@
         <v>12</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -4392,7 +4404,7 @@
         <v>12</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4419,13 @@
         <v>923</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H57" s="7">
         <v>2</v>
@@ -4422,13 +4434,13 @@
         <v>1938</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M57" s="7">
         <v>3</v>
@@ -4437,13 +4449,13 @@
         <v>2861</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,7 +4476,7 @@
         <v>12</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H58" s="7">
         <v>1</v>
@@ -4473,13 +4485,13 @@
         <v>1225</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M58" s="7">
         <v>1</v>
@@ -4488,13 +4500,13 @@
         <v>1225</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,7 +4527,7 @@
         <v>12</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H59" s="7">
         <v>1</v>
@@ -4524,13 +4536,13 @@
         <v>818</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M59" s="7">
         <v>1</v>
@@ -4539,13 +4551,13 @@
         <v>818</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,13 +4572,13 @@
         <v>869</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4590,13 +4602,13 @@
         <v>869</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4623,13 @@
         <v>2023</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
@@ -4626,13 +4638,13 @@
         <v>1058</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M61" s="7">
         <v>3</v>
@@ -4641,13 +4653,13 @@
         <v>3081</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,7 +4680,7 @@
         <v>12</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H62" s="7">
         <v>1</v>
@@ -4677,13 +4689,13 @@
         <v>718</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M62" s="7">
         <v>1</v>
@@ -4692,13 +4704,13 @@
         <v>718</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,7 +4731,7 @@
         <v>12</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H63" s="7">
         <v>1</v>
@@ -4728,13 +4740,13 @@
         <v>736</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M63" s="7">
         <v>1</v>
@@ -4743,13 +4755,13 @@
         <v>736</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P63" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4776,13 @@
         <v>4653</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
@@ -4779,13 +4791,13 @@
         <v>910</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M64" s="7">
         <v>6</v>
@@ -4794,13 +4806,13 @@
         <v>5563</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,13 +4827,13 @@
         <v>1924</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H65" s="7">
         <v>5</v>
@@ -4830,13 +4842,13 @@
         <v>4245</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M65" s="7">
         <v>7</v>
@@ -4845,13 +4857,13 @@
         <v>6169</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,7 +4884,7 @@
         <v>12</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H66" s="7">
         <v>3</v>
@@ -4881,13 +4893,13 @@
         <v>2841</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M66" s="7">
         <v>3</v>
@@ -4896,10 +4908,10 @@
         <v>2841</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="Q66" s="7" t="s">
         <v>141</v>
@@ -5597,13 +5609,13 @@
         <v>910</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="K80" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M80" s="7">
         <v>6</v>
@@ -5612,13 +5624,13 @@
         <v>5563</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5645,13 @@
         <v>1924</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H81" s="7">
         <v>5</v>
@@ -5648,13 +5660,13 @@
         <v>4245</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M81" s="7">
         <v>7</v>
@@ -5663,13 +5675,13 @@
         <v>6169</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5711,13 @@
         <v>2841</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M82" s="7">
         <v>3</v>
@@ -5714,13 +5726,13 @@
         <v>2841</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,7 +5788,7 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -5796,7 +5808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D5D100-1A44-4C8E-B194-3B366A9B0D82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F171195-570B-41BC-9AD0-4C6CAF50566D}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5813,7 +5825,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5935,7 +5947,7 @@
         <v>759</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
@@ -5950,7 +5962,7 @@
         <v>759</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
@@ -5986,7 +5998,7 @@
         <v>536</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
@@ -6001,7 +6013,7 @@
         <v>1473</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
@@ -6043,7 +6055,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6058,7 +6070,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,7 +6106,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6109,7 +6121,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,7 +6157,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6160,7 +6172,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,7 +6208,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6211,7 +6223,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,7 +6259,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6262,7 +6274,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,7 +6310,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6313,7 +6325,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,7 +6361,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6364,7 +6376,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6400,7 +6412,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6415,7 +6427,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,7 +6463,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6466,7 +6478,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6502,7 +6514,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -6517,7 +6529,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,7 +6565,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6568,7 +6580,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6604,7 +6616,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6619,7 +6631,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,7 +6667,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6670,7 +6682,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6744,22 +6756,22 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6795,22 +6807,22 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6840,13 +6852,13 @@
         <v>1015</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6861,7 +6873,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -6870,13 +6882,13 @@
         <v>1015</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,7 +6903,7 @@
         <v>892</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
@@ -6912,7 +6924,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -6921,13 +6933,13 @@
         <v>892</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6942,13 +6954,13 @@
         <v>832</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -6957,7 +6969,7 @@
         <v>715</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
@@ -6972,13 +6984,13 @@
         <v>1547</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6993,13 +7005,13 @@
         <v>672</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7014,7 +7026,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -7023,13 +7035,13 @@
         <v>672</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7050,7 +7062,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -7059,7 +7071,7 @@
         <v>1165</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
@@ -7074,13 +7086,13 @@
         <v>1165</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,22 +7113,22 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -7152,22 +7164,22 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7203,22 +7215,22 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -7254,22 +7266,22 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -7305,22 +7317,22 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -7356,22 +7368,22 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7407,22 +7419,22 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -7458,22 +7470,22 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -7577,7 +7589,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -7628,7 +7640,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -7679,7 +7691,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -7724,13 +7736,13 @@
         <v>915</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -7739,13 +7751,13 @@
         <v>915</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7775,13 +7787,13 @@
         <v>938</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -7790,13 +7802,13 @@
         <v>938</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7832,7 +7844,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -7883,7 +7895,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -7892,13 +7904,13 @@
         <v>644</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7928,13 +7940,13 @@
         <v>931</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>257</v>
+        <v>14</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -7943,13 +7955,13 @@
         <v>931</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7985,7 +7997,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -8030,13 +8042,13 @@
         <v>931</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -8045,13 +8057,13 @@
         <v>931</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8087,7 +8099,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -8138,7 +8150,7 @@
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -8189,7 +8201,7 @@
         <v>12</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -8240,7 +8252,7 @@
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -8291,7 +8303,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -8362,7 +8374,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B52" s="5">
         <v>2015</v>
@@ -8380,7 +8392,7 @@
         <v>12</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -8395,7 +8407,7 @@
         <v>12</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -8410,7 +8422,7 @@
         <v>12</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8431,7 +8443,7 @@
         <v>12</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
@@ -8440,13 +8452,13 @@
         <v>957</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M53" s="7">
         <v>1</v>
@@ -8455,13 +8467,13 @@
         <v>957</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8482,7 +8494,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -8497,7 +8509,7 @@
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -8512,7 +8524,7 @@
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8533,7 +8545,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
@@ -8542,13 +8554,13 @@
         <v>993</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M55" s="7">
         <v>1</v>
@@ -8557,13 +8569,13 @@
         <v>993</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8578,13 +8590,13 @@
         <v>943</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H56" s="7">
         <v>1</v>
@@ -8593,13 +8605,13 @@
         <v>874</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M56" s="7">
         <v>2</v>
@@ -8608,13 +8620,13 @@
         <v>1818</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8635,7 +8647,7 @@
         <v>12</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H57" s="7">
         <v>1</v>
@@ -8644,13 +8656,13 @@
         <v>1167</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M57" s="7">
         <v>1</v>
@@ -8659,13 +8671,13 @@
         <v>1167</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -8686,7 +8698,7 @@
         <v>12</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -8701,7 +8713,7 @@
         <v>12</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -8716,7 +8728,7 @@
         <v>12</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -8731,13 +8743,13 @@
         <v>2024</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H59" s="7">
         <v>1</v>
@@ -8746,13 +8758,13 @@
         <v>931</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M59" s="7">
         <v>3</v>
@@ -8761,13 +8773,13 @@
         <v>2956</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -8788,7 +8800,7 @@
         <v>12</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -8803,7 +8815,7 @@
         <v>12</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -8818,7 +8830,7 @@
         <v>12</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -8833,13 +8845,13 @@
         <v>2253</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -8854,7 +8866,7 @@
         <v>12</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M61" s="7">
         <v>2</v>
@@ -8863,13 +8875,13 @@
         <v>2253</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>290</v>
+        <v>33</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -8884,13 +8896,13 @@
         <v>713</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="H62" s="7">
         <v>3</v>
@@ -8902,10 +8914,10 @@
         <v>294</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M62" s="7">
         <v>4</v>
@@ -8914,13 +8926,13 @@
         <v>3290</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -8941,7 +8953,7 @@
         <v>12</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H63" s="7">
         <v>2</v>
@@ -8950,13 +8962,13 @@
         <v>1492</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M63" s="7">
         <v>2</v>
@@ -8965,13 +8977,13 @@
         <v>1492</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P63" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -8986,13 +8998,13 @@
         <v>1862</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
@@ -9001,13 +9013,13 @@
         <v>778</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M64" s="7">
         <v>3</v>
@@ -9016,7 +9028,7 @@
         <v>2640</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>308</v>
@@ -9058,7 +9070,7 @@
         <v>12</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M65" s="7">
         <v>1</v>
@@ -9094,7 +9106,7 @@
         <v>12</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -9109,7 +9121,7 @@
         <v>12</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M66" s="7">
         <v>0</v>
@@ -9124,7 +9136,7 @@
         <v>12</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -9228,7 +9240,7 @@
         <v>11</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>179</v>
+        <v>318</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -9243,13 +9255,13 @@
         <v>937</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H69" s="7">
         <v>2</v>
@@ -9258,13 +9270,13 @@
         <v>1492</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M69" s="7">
         <v>3</v>
@@ -9273,13 +9285,13 @@
         <v>2429</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -9294,13 +9306,13 @@
         <v>1015</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -9315,7 +9327,7 @@
         <v>12</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M70" s="7">
         <v>1</v>
@@ -9324,13 +9336,13 @@
         <v>1015</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -9345,13 +9357,13 @@
         <v>892</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H71" s="7">
         <v>2</v>
@@ -9360,13 +9372,13 @@
         <v>1908</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M71" s="7">
         <v>3</v>
@@ -9375,13 +9387,13 @@
         <v>2799</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -9396,13 +9408,13 @@
         <v>1775</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H72" s="7">
         <v>3</v>
@@ -9411,13 +9423,13 @@
         <v>2528</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>194</v>
+        <v>339</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M72" s="7">
         <v>5</v>
@@ -9426,13 +9438,13 @@
         <v>4303</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -9447,13 +9459,13 @@
         <v>672</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="H73" s="7">
         <v>1</v>
@@ -9462,13 +9474,13 @@
         <v>1167</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M73" s="7">
         <v>2</v>
@@ -9477,13 +9489,13 @@
         <v>1840</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P73" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -9498,13 +9510,13 @@
         <v>644</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H74" s="7">
         <v>2</v>
@@ -9513,13 +9525,13 @@
         <v>1165</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M74" s="7">
         <v>3</v>
@@ -9528,10 +9540,10 @@
         <v>1809</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>354</v>
+        <v>149</v>
       </c>
       <c r="Q74" s="7" t="s">
         <v>355</v>
@@ -9585,7 +9597,7 @@
         <v>360</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>147</v>
+        <v>361</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -9621,7 +9633,7 @@
         <v>12</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M76" s="7">
         <v>0</v>
@@ -9651,13 +9663,13 @@
         <v>2253</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H77" s="7">
         <v>1</v>
@@ -9666,7 +9678,7 @@
         <v>931</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>363</v>
+        <v>209</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>11</v>
@@ -9723,7 +9735,7 @@
         <v>371</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>90</v>
+        <v>372</v>
       </c>
       <c r="M78" s="7">
         <v>4</v>
@@ -9732,13 +9744,13 @@
         <v>3290</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>178</v>
+        <v>375</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -9768,13 +9780,13 @@
         <v>1492</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M79" s="7">
         <v>2</v>
@@ -9783,13 +9795,13 @@
         <v>1492</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>286</v>
+        <v>377</v>
       </c>
       <c r="P79" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -9804,13 +9816,13 @@
         <v>1862</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H80" s="7">
         <v>1</v>
@@ -9819,13 +9831,13 @@
         <v>778</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K80" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M80" s="7">
         <v>3</v>
@@ -9834,13 +9846,13 @@
         <v>2640</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>317</v>
+        <v>384</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -9855,13 +9867,13 @@
         <v>983</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
@@ -9876,7 +9888,7 @@
         <v>12</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M81" s="7">
         <v>1</v>
@@ -9885,13 +9897,13 @@
         <v>983</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="P81" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -9927,7 +9939,7 @@
         <v>12</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M82" s="7">
         <v>0</v>
@@ -9998,7 +10010,7 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
